--- a/Documenten/Presentielijst.xlsx
+++ b/Documenten/Presentielijst.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rudolf\Desktop\Studie\FYS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rudolf\Desktop\Studie\FYS\FYS\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="17">
   <si>
     <t>Aanwezig/afwezig/Te laat</t>
   </si>
@@ -75,14 +75,25 @@
   </si>
   <si>
     <t>Praktijkexamen voor rijbewijs B</t>
+  </si>
+  <si>
+    <t>Te laat, openbaar vervoer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -110,9 +121,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -427,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8FAAA2-0A49-48A6-BE8B-5D68EBF5FD21}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,16 +454,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -616,7 +628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>42991</v>
       </c>
@@ -627,7 +639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>42991</v>
       </c>
@@ -638,7 +650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>42991</v>
       </c>
@@ -649,7 +661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>42991</v>
       </c>
@@ -660,7 +672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>42991</v>
       </c>
@@ -671,8 +683,150 @@
         <v>10</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>42996</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>42996</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>42996</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>42996</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>42996</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>42996</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>42998</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>42998</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>42998</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>42998</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>42998</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>42998</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documenten/Presentielijst.xlsx
+++ b/Documenten/Presentielijst.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="21">
   <si>
     <t>Aanwezig/afwezig/Te laat</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Mark Rietbergen</t>
   </si>
   <si>
-    <t>Aliriza Kavsara</t>
-  </si>
-  <si>
     <t>Huseyin Akgun</t>
   </si>
   <si>
@@ -78,13 +75,28 @@
   </si>
   <si>
     <t>Te laat, openbaar vervoer</t>
+  </si>
+  <si>
+    <t>Ali Kavsara</t>
+  </si>
+  <si>
+    <t>Huisarts</t>
+  </si>
+  <si>
+    <t>Verslapen</t>
+  </si>
+  <si>
+    <t>Ziekenhuis</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +106,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -121,10 +140,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -145,7 +166,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -183,7 +204,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -289,7 +310,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -439,389 +460,798 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8FAAA2-0A49-48A6-BE8B-5D68EBF5FD21}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>42984</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>42984</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>42984</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>42984</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>42984</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>42984</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>42989</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>42989</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>42989</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>42989</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>42989</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>42984</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>42989</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>42991</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>42991</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>42991</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>42991</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>42991</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>42984</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>42991</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>42996</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>42996</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>42996</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>42996</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>42984</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>42996</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>42996</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>42984</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>42989</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>42998</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>42998</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>42989</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>42998</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>42989</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>42998</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>42998</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>42989</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>42998</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>43003</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>43003</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>43003</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>43003</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>42989</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>43003</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>43003</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>42989</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>42991</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>43005</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>43005</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>42991</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>43005</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>42991</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>43005</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>43005</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>42991</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>43005</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>43010</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>43010</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>43010</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>43010</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>42991</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>43010</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>43010</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>42991</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>42996</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>43012</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>43012</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>42996</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>43012</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>42996</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C60" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>43012</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>43012</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>43012</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>43017</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>42996</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>43017</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>43017</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>43017</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>42996</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>43017</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>43017</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>42996</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>42998</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C70" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>43019</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>43019</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>42998</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>43019</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>42998</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>43019</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>43019</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>42998</v>
-      </c>
-      <c r="B33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>42998</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>43019</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>42998</v>
-      </c>
-      <c r="B35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" t="s">
-        <v>10</v>
+      <c r="C77" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Documenten/Presentielijst.xlsx
+++ b/Documenten/Presentielijst.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="21">
   <si>
     <t>Aanwezig/afwezig/Te laat</t>
   </si>
@@ -89,7 +89,7 @@
     <t>Ziekenhuis</t>
   </si>
   <si>
-    <t>?</t>
+    <t>Afspraak ziekenhuis</t>
   </si>
 </sst>
 </file>
@@ -460,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8FAAA2-0A49-48A6-BE8B-5D68EBF5FD21}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:A77"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1122,7 +1122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>43017</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>43017</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>43017</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>43017</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>43017</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>43017</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>43019</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>43019</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>43019</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>43019</v>
       </c>
@@ -1229,10 +1229,10 @@
         <v>4</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>43019</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>43019</v>
       </c>
@@ -1251,7 +1251,142 @@
         <v>8</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <v>43024</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>43024</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>43024</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>43024</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>43024</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>43024</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>43026</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>43026</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>43026</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
+        <v>43026</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>43026</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
+        <v>43026</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Documenten/Presentielijst.xlsx
+++ b/Documenten/Presentielijst.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="22">
   <si>
     <t>Aanwezig/afwezig/Te laat</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Afspraak ziekenhuis</t>
+  </si>
+  <si>
+    <t>Medisch</t>
   </si>
 </sst>
 </file>
@@ -140,12 +143,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -460,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8FAAA2-0A49-48A6-BE8B-5D68EBF5FD21}">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1279,7 +1283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>43024</v>
       </c>
@@ -1290,7 +1294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>43024</v>
       </c>
@@ -1301,7 +1305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>43024</v>
       </c>
@@ -1312,7 +1316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>43024</v>
       </c>
@@ -1323,7 +1327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>43026</v>
       </c>
@@ -1334,7 +1338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>43026</v>
       </c>
@@ -1345,7 +1349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>43026</v>
       </c>
@@ -1356,7 +1360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>43026</v>
       </c>
@@ -1367,7 +1371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>43026</v>
       </c>
@@ -1378,7 +1382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>43026</v>
       </c>
@@ -1387,6 +1391,204 @@
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <v>43040</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>43040</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>43040</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>43040</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <v>43040</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>43040</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>43048</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <v>43048</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>43048</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <v>43048</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <v>43048</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <v>43048</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
+        <v>43053</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
+        <v>43053</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="3">
+        <v>43053</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
+        <v>43053</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
+        <v>43053</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="3">
+        <v>43053</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
